--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2592900.689210673</v>
+        <v>2590487.77670487</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10689347.14596503</v>
+        <v>10689347.14596504</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>195.2590144254304</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>52.50412553520878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1540,7 +1540,7 @@
         <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H13" t="n">
         <v>97.77987829572822</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1607,19 +1607,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>301.7263503513784</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>307.2654071077723</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1783,7 +1783,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211453</v>
+        <v>244.7592402314875</v>
       </c>
       <c r="C17" t="n">
         <v>297.0487454286722</v>
@@ -1856,7 +1856,7 @@
         <v>338.6518993993761</v>
       </c>
       <c r="G17" t="n">
-        <v>342.6975793111181</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>226.3836180449852</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.96361544584052</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>135.6938237972849</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>182.7710256165666</v>
       </c>
       <c r="V17" t="n">
-        <v>206.5085425867154</v>
+        <v>259.5281121277996</v>
       </c>
       <c r="W17" t="n">
         <v>281.0168223750777</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>111.607833839602</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629255</v>
+        <v>99.02267475629252</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587707</v>
+        <v>80.39132667587704</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423388</v>
+        <v>78.20981630423385</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059596</v>
+        <v>77.19690168059593</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669294</v>
+        <v>97.80166191669291</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198551</v>
+        <v>76.53086857198547</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750283</v>
+        <v>28.12827406750279</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771208</v>
+        <v>20.70800632771203</v>
       </c>
       <c r="S19" t="n">
         <v>121.5448789891066</v>
@@ -2081,13 +2081,13 @@
         <v>314.5096953211453</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>297.0487454286722</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4588952783477</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299265</v>
+        <v>187.7170846074979</v>
       </c>
       <c r="F20" t="n">
         <v>338.6518993993761</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584057</v>
+        <v>40.96361544584052</v>
       </c>
       <c r="T20" t="n">
-        <v>20.29453482518083</v>
+        <v>135.6938237972849</v>
       </c>
       <c r="U20" t="n">
-        <v>182.7710256165667</v>
+        <v>182.7710256165666</v>
       </c>
       <c r="V20" t="n">
         <v>259.5281121277996</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>111.607833839602</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629255</v>
+        <v>99.02267475629252</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587707</v>
+        <v>80.39132667587704</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423388</v>
+        <v>78.20981630423385</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059596</v>
+        <v>77.19690168059593</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669294</v>
+        <v>97.80166191669291</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198549</v>
+        <v>76.53086857198547</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750282</v>
+        <v>28.12827406750279</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771206</v>
+        <v>20.70800632771203</v>
       </c>
       <c r="S22" t="n">
         <v>121.5448789891066</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5096953211452</v>
+        <v>314.5096953211453</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0487454286721</v>
+        <v>297.0487454286722</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783475</v>
+        <v>286.4588952783477</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7062237299264</v>
+        <v>313.7062237299265</v>
       </c>
       <c r="F23" t="n">
-        <v>338.651899399376</v>
+        <v>338.6518993993761</v>
       </c>
       <c r="G23" t="n">
-        <v>342.697579311118</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H23" t="n">
-        <v>226.383618044985</v>
+        <v>226.3836180449852</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.9636154458404</v>
+        <v>40.96361544584055</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6938237972847</v>
+        <v>135.6938237972849</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7710256165665</v>
+        <v>182.7710256165667</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5281121277994</v>
+        <v>259.5281121277996</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0168223750776</v>
+        <v>281.0168223750777</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5069543361336</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.0137923137181</v>
+        <v>318.0137923137183</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247641</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.6078338396019</v>
+        <v>111.607833839602</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629239</v>
+        <v>99.02267475629253</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587691</v>
+        <v>80.39132667587705</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423373</v>
+        <v>78.20981630423387</v>
       </c>
       <c r="F25" t="n">
-        <v>77.1969016805958</v>
+        <v>77.19690168059594</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669278</v>
+        <v>97.80166191669292</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198534</v>
+        <v>76.53086857198548</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750267</v>
+        <v>28.12827406750281</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.7080063277119</v>
+        <v>20.70800632771204</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891066</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3248029338338</v>
+        <v>151.3248029338339</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9876918632774</v>
+        <v>217.9876918632775</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814927</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942557</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4855090467017</v>
+        <v>157.4855090467018</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3605070097593</v>
+        <v>150.3605070097595</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374604</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,10 +2804,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348603</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353754</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925778</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441566</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592153</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007067</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
-        <v>106.233249911515</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307968</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420297</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893078</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279484</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383212</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052266</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846399</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482607</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>144.3761107440574</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T37" t="n">
-        <v>121.864229048064</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957228</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084858</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239896</v>
+        <v>171.8594389464409</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3512,13 +3512,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010733</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621576</v>
+        <v>99.36210032693349</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>134.2912433677308</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7752483302252</v>
+        <v>310.7752483302255</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3142984377522</v>
+        <v>293.3142984377524</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874276</v>
+        <v>282.7244482874278</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390064</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9174524084561</v>
+        <v>334.9174524084563</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201981</v>
+        <v>338.9631323201983</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540651</v>
+        <v>172.4551712651754</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.2291684549205</v>
+        <v>37.22916845492075</v>
       </c>
       <c r="T41" t="n">
-        <v>27.58726541534904</v>
+        <v>131.959376806365</v>
       </c>
       <c r="U41" t="n">
-        <v>179.0365786256466</v>
+        <v>179.0365786256469</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W41" t="n">
-        <v>277.2823753841577</v>
+        <v>277.2823753841579</v>
       </c>
       <c r="X41" t="n">
-        <v>297.7725073452137</v>
+        <v>297.7725073452139</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227982</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8733868486819</v>
+        <v>107.8733868486822</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537248</v>
+        <v>95.28822776537272</v>
       </c>
       <c r="D43" t="n">
-        <v>76.656879684957</v>
+        <v>76.65687968495725</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331382</v>
+        <v>74.47536931331406</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967589</v>
+        <v>73.46245468967614</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577287</v>
+        <v>94.06721492577311</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106543</v>
+        <v>72.79642158106567</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658276</v>
+        <v>24.393827076583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679199</v>
+        <v>16.97355933679223</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8104319981865</v>
+        <v>117.8104319981868</v>
       </c>
       <c r="T43" t="n">
-        <v>147.5903559429138</v>
+        <v>147.5903559429141</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2532448723575</v>
+        <v>214.2532448723577</v>
       </c>
       <c r="V43" t="n">
-        <v>211.5917062261167</v>
+        <v>211.5917062261131</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5644050033357</v>
+        <v>214.5644050033359</v>
       </c>
       <c r="X43" t="n">
-        <v>153.7510620557818</v>
+        <v>153.751062055782</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6260600188394</v>
+        <v>146.6260600188397</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302252</v>
+        <v>243.923770240081</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3142984377522</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>282.7244482874276</v>
+        <v>282.7244482874278</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390064</v>
+        <v>309.9717767390067</v>
       </c>
       <c r="F44" t="n">
-        <v>334.9174524084561</v>
+        <v>334.9174524084563</v>
       </c>
       <c r="G44" t="n">
-        <v>338.9631323201981</v>
+        <v>338.9631323201983</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540651</v>
+        <v>222.6491710540653</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>37.22916845492075</v>
       </c>
       <c r="T44" t="n">
-        <v>131.9593768063648</v>
+        <v>131.959376806365</v>
       </c>
       <c r="U44" t="n">
-        <v>179.0365786256466</v>
+        <v>179.0365786256469</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368796</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W44" t="n">
-        <v>252.1182746563972</v>
+        <v>277.2823753841579</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>297.7725073452139</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227982</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8733868486819</v>
+        <v>107.8733868486822</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537248</v>
+        <v>95.28822776537272</v>
       </c>
       <c r="D46" t="n">
-        <v>76.656879684957</v>
+        <v>76.65687968495725</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331382</v>
+        <v>74.47536931331406</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967589</v>
+        <v>73.46245468967614</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577287</v>
+        <v>94.06721492577311</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106543</v>
+        <v>72.79642158106567</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658276</v>
+        <v>24.393827076583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679199</v>
+        <v>16.97355933679223</v>
       </c>
       <c r="S46" t="n">
-        <v>149.2230882337306</v>
+        <v>149.223088233727</v>
       </c>
       <c r="T46" t="n">
-        <v>147.5903559429138</v>
+        <v>147.5903559429141</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2532448723575</v>
+        <v>214.2532448723577</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1790499905727</v>
+        <v>180.1790499905729</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5644050033357</v>
+        <v>214.5644050033359</v>
       </c>
       <c r="X46" t="n">
-        <v>153.7510620557818</v>
+        <v>153.751062055782</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6260600188394</v>
+        <v>146.6260600188397</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.472742224993</v>
+        <v>1644.057218491951</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232655</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218343</v>
@@ -5039,16 +5039,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
@@ -5063,28 +5063,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>3041.992567213675</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2736.673544891633</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>2410.657419578627</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y11" t="n">
-        <v>2357.622949341042</v>
+        <v>1983.207425607999</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052952</v>
+        <v>759.466249805295</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254616</v>
+        <v>637.9796998254615</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611992</v>
+        <v>535.3126933611989</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268793</v>
+        <v>434.8492327268789</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770421</v>
+        <v>335.4089181770419</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998339</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
@@ -5197,7 +5197,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
         <v>408.6327023328087</v>
@@ -5212,10 +5212,10 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5233,16 +5233,16 @@
         <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.51548292175</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832863</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874617</v>
+        <v>893.6650816874615</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2012.430767830336</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1690.917883837997</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>990.5514538055361</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F14" t="n">
-        <v>684.268901082273</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.60582160917</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>3020.286799287129</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>2694.270673974122</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2351.580974946384</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5425,22 +5425,22 @@
         <v>335.4089181770411</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998335</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
         <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5464,7 +5464,7 @@
         <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
         <v>1696.750338179562</v>
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1889.690865111402</v>
+        <v>1543.53169409007</v>
       </c>
       <c r="C17" t="n">
-        <v>1589.641627304662</v>
+        <v>1243.48245628333</v>
       </c>
       <c r="D17" t="n">
-        <v>1300.289207831584</v>
+        <v>954.1300368102517</v>
       </c>
       <c r="E17" t="n">
-        <v>983.4142343670114</v>
+        <v>637.2550633456794</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3416087110759</v>
+        <v>295.1824376897442</v>
       </c>
       <c r="G17" t="n">
         <v>295.1824376897442</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5534,31 +5534,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>2962.54676619534</v>
       </c>
       <c r="V17" t="n">
-        <v>3117.011334147841</v>
+        <v>2700.397157985441</v>
       </c>
       <c r="W17" t="n">
-        <v>2833.155958011399</v>
+        <v>2416.541781848999</v>
       </c>
       <c r="X17" t="n">
-        <v>2528.603478883991</v>
+        <v>2111.989302721591</v>
       </c>
       <c r="Y17" t="n">
-        <v>2207.377426041851</v>
+        <v>1790.763249879452</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5607,7 +5607,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.41198488674</v>
@@ -5616,28 +5616,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2207265061033</v>
+        <v>609.2207265061031</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118685</v>
+        <v>509.1978227118683</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9944624332048</v>
+        <v>427.9944624332046</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844837</v>
+        <v>348.9946479844835</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0179796202453</v>
+        <v>271.0179796202452</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2284221286363</v>
+        <v>172.2284221286362</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016605</v>
+        <v>94.92451448016604</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5677,25 +5677,25 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1645.701494551992</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
         <v>1878.308994985651</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138166</v>
+        <v>1955.919291138165</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029366</v>
+        <v>1935.002113029365</v>
       </c>
       <c r="S19" t="n">
         <v>1812.229507989864</v>
@@ -5713,10 +5713,10 @@
         <v>1032.911483976874</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125291</v>
+        <v>873.8352122125289</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.955912202671</v>
+        <v>721.9559122026708</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1589.641627304662</v>
+        <v>1473.076688949001</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.641627304662</v>
+        <v>1173.027451142262</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.289207831583</v>
+        <v>1173.027451142262</v>
       </c>
       <c r="E20" t="n">
-        <v>983.414234367011</v>
+        <v>983.4142343670114</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3416087110754</v>
+        <v>641.3416087110759</v>
       </c>
       <c r="G20" t="n">
         <v>295.1824376897442</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
@@ -5780,22 +5780,22 @@
         <v>3284.228432269937</v>
       </c>
       <c r="T20" t="n">
-        <v>3263.728902143492</v>
+        <v>3147.163963787831</v>
       </c>
       <c r="U20" t="n">
-        <v>3079.111704551</v>
+        <v>2962.54676619534</v>
       </c>
       <c r="V20" t="n">
-        <v>2816.962096341101</v>
+        <v>2700.397157985441</v>
       </c>
       <c r="W20" t="n">
-        <v>2533.106720204659</v>
+        <v>2416.541781848999</v>
       </c>
       <c r="X20" t="n">
-        <v>2228.554241077251</v>
+        <v>2111.989302721591</v>
       </c>
       <c r="Y20" t="n">
-        <v>1907.328188235111</v>
+        <v>1790.763249879451</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5853,28 +5853,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2207265061032</v>
+        <v>609.2207265061031</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118684</v>
+        <v>509.1978227118683</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9944624332047</v>
+        <v>427.9944624332046</v>
       </c>
       <c r="E22" t="n">
         <v>348.9946479844835</v>
@@ -5902,13 +5902,13 @@
         <v>172.2284221286362</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016604</v>
+        <v>94.92451448016602</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>140.2594919287924</v>
       </c>
       <c r="K22" t="n">
         <v>344.2466748776687</v>
@@ -5950,10 +5950,10 @@
         <v>1032.911483976874</v>
       </c>
       <c r="X22" t="n">
-        <v>873.835212212529</v>
+        <v>873.8352122125289</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9559122026709</v>
+        <v>721.9559122026708</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>1898.193195237164</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.143957430424</v>
+        <v>1598.143957430425</v>
       </c>
       <c r="D23" t="n">
         <v>1308.791537957346</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927737</v>
+        <v>991.9165644927743</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368383</v>
+        <v>649.8439388368392</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6847678155073</v>
+        <v>303.6847678155074</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794661</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794661</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="J23" t="n">
-        <v>263.893577516972</v>
+        <v>431.2992265373251</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7129512068184</v>
+        <v>765.1186002271714</v>
       </c>
       <c r="L23" t="n">
-        <v>1048.747164455227</v>
+        <v>1216.15281347558</v>
       </c>
       <c r="M23" t="n">
-        <v>1977.050940609816</v>
+        <v>1749.684718147504</v>
       </c>
       <c r="N23" t="n">
-        <v>2545.672062348331</v>
+        <v>2480.612806674081</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.644533227668</v>
+        <v>2983.585277553418</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.418899584846</v>
+        <v>3378.359643910596</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.705261340528</v>
+        <v>3626.646005666278</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897331</v>
+        <v>3750.722327897333</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.344938558098</v>
+        <v>3709.344938558101</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075992</v>
+        <v>3572.280470075995</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483501</v>
+        <v>3387.663272483503</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.513664273602</v>
+        <v>3125.513664273604</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.658288137161</v>
+        <v>2841.658288137162</v>
       </c>
       <c r="X23" t="n">
-        <v>2537.105809009753</v>
+        <v>2537.105809009754</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167613</v>
+        <v>2215.879756167614</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0461846068715</v>
+        <v>950.0461846068708</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5931553257445</v>
+        <v>775.5931553257439</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6587456644934</v>
+        <v>626.6587456644926</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4212906590378</v>
+        <v>467.4212906590371</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859229</v>
+        <v>320.8867326859221</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185411</v>
+        <v>184.5236325185402</v>
       </c>
       <c r="H24" t="n">
-        <v>94.02173815640867</v>
+        <v>94.02173815640769</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794661</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="J24" t="n">
         <v>168.6917160485639</v>
@@ -6072,7 +6072,7 @@
         <v>406.955915028911</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6540753415762</v>
+        <v>773.6540753415763</v>
       </c>
       <c r="M24" t="n">
         <v>1220.930400563892</v>
@@ -6081,28 +6081,28 @@
         <v>1694.453444118347</v>
       </c>
       <c r="O24" t="n">
-        <v>2105.414723536402</v>
+        <v>2105.414723536401</v>
       </c>
       <c r="P24" t="n">
-        <v>2415.914315012505</v>
+        <v>2415.914315012504</v>
       </c>
       <c r="Q24" t="n">
-        <v>2573.555872659104</v>
+        <v>2573.555872659103</v>
       </c>
       <c r="R24" t="n">
-        <v>2573.41151925162</v>
+        <v>2573.411519251619</v>
       </c>
       <c r="S24" t="n">
-        <v>2443.9736327451</v>
+        <v>2443.973632745099</v>
       </c>
       <c r="T24" t="n">
-        <v>2251.330632422955</v>
+        <v>2251.330632422954</v>
       </c>
       <c r="U24" t="n">
-        <v>2023.262785557371</v>
+        <v>2023.26278555737</v>
       </c>
       <c r="V24" t="n">
-        <v>1788.110677325628</v>
+        <v>1788.110677325627</v>
       </c>
       <c r="W24" t="n">
         <v>1533.873320597426</v>
@@ -6111,7 +6111,7 @@
         <v>1326.021820391893</v>
       </c>
       <c r="Y24" t="n">
-        <v>1118.26152162694</v>
+        <v>1118.261521626939</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318655</v>
+        <v>617.7230566318665</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376308</v>
+        <v>517.7001528376315</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589672</v>
+        <v>436.4967925589679</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102462</v>
+        <v>357.4969781102468</v>
       </c>
       <c r="F25" t="n">
-        <v>279.520309746008</v>
+        <v>279.5203097460085</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543991</v>
+        <v>180.7307522543995</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059291</v>
+        <v>103.4268446059293</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794661</v>
+        <v>75.01444655794667</v>
       </c>
       <c r="J25" t="n">
-        <v>120.1370790048821</v>
+        <v>148.7618220545557</v>
       </c>
       <c r="K25" t="n">
-        <v>324.1242619537585</v>
+        <v>352.749005003432</v>
       </c>
       <c r="L25" t="n">
-        <v>640.6840604022545</v>
+        <v>669.3088034519282</v>
       </c>
       <c r="M25" t="n">
-        <v>1013.465849051475</v>
+        <v>1013.465849051477</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.87422575734</v>
+        <v>1354.874225757342</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.203824677753</v>
+        <v>1654.203824677755</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111412</v>
+        <v>1886.811325111414</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263927</v>
+        <v>1964.421621263929</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.504443155127</v>
+        <v>1943.504443155129</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.731838115626</v>
+        <v>1820.731838115627</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.878501818824</v>
+        <v>1667.878501818825</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.688914078139</v>
+        <v>1447.688914078141</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.917705005925</v>
+        <v>1261.917705005926</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.413814102636</v>
+        <v>1041.413814102638</v>
       </c>
       <c r="X25" t="n">
-        <v>882.337542338291</v>
+        <v>882.3375423382922</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.458242328433</v>
+        <v>730.4582423284342</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6233,13 +6233,13 @@
         <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623798</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3071.136282571877</v>
       </c>
       <c r="P26" t="n">
         <v>3750.042416521973</v>
@@ -6260,7 +6260,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415476</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6385,13 +6385,13 @@
         <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6406,10 +6406,10 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570351</v>
@@ -6424,10 +6424,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>937.3106675423226</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1388.344880790731</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623798</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6494,7 +6494,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
@@ -6540,28 +6540,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676534</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803187</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,16 +6619,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6704,19 +6704,19 @@
         <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198915</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
@@ -6734,7 +6734,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6777,7 +6777,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K33" t="n">
         <v>413.0883853676542</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,31 +6856,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
         <v>2127.355355052752</v>
@@ -6889,7 +6889,7 @@
         <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,37 +6947,37 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960651</v>
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.927942146433</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C37" t="n">
-        <v>626.6631937923697</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D37" t="n">
-        <v>575.2179889538776</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>525.9763299453281</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959802</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7120,25 +7120,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1691.629635548993</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T37" t="n">
-        <v>1568.534454692362</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U37" t="n">
-        <v>1378.103022391849</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V37" t="n">
-        <v>1222.089968759806</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W37" t="n">
-        <v>1031.344233296689</v>
+        <v>886.821369846699</v>
       </c>
       <c r="X37" t="n">
-        <v>902.0261169725156</v>
+        <v>757.503253522525</v>
       </c>
       <c r="Y37" t="n">
-        <v>779.9049724028291</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
@@ -7184,40 +7184,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.602264964779</v>
+        <v>651.0765132702852</v>
       </c>
       <c r="C40" t="n">
-        <v>529.3375166107155</v>
+        <v>580.8117649162217</v>
       </c>
       <c r="D40" t="n">
-        <v>477.8923117722232</v>
+        <v>430.6951255038859</v>
       </c>
       <c r="E40" t="n">
-        <v>329.9792181898301</v>
+        <v>381.4534664953362</v>
       </c>
       <c r="F40" t="n">
-        <v>281.7607052657632</v>
+        <v>333.2349535712692</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>264.2035515198315</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1791.646827515027</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1569.880212084553</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1280.777345210196</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1124.764291578153</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>934.0185561150357</v>
+        <v>985.4928044205423</v>
       </c>
       <c r="X40" t="n">
-        <v>804.7004397908619</v>
+        <v>856.1746880963683</v>
       </c>
       <c r="Y40" t="n">
-        <v>682.5792952211752</v>
+        <v>734.0535435266816</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1867.05785304522</v>
+        <v>1503.254038370578</v>
       </c>
       <c r="C41" t="n">
-        <v>1570.780783916178</v>
+        <v>1206.976969241535</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.200533120796</v>
+        <v>921.3967184461533</v>
       </c>
       <c r="E41" t="n">
-        <v>972.0977283339212</v>
+        <v>921.3967184461533</v>
       </c>
       <c r="F41" t="n">
-        <v>633.7972713556826</v>
+        <v>583.0962614679145</v>
       </c>
       <c r="G41" t="n">
-        <v>291.4102690120472</v>
+        <v>240.7092591242798</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912088</v>
@@ -7418,43 +7418,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3288.000600947635</v>
+        <v>3288.000600947636</v>
       </c>
       <c r="T41" t="n">
-        <v>3260.134676285666</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U41" t="n">
-        <v>3079.289647370872</v>
+        <v>2973.863272228432</v>
       </c>
       <c r="V41" t="n">
-        <v>3079.289647370872</v>
+        <v>2715.48583269623</v>
       </c>
       <c r="W41" t="n">
-        <v>2799.206439912126</v>
+        <v>2435.402625237485</v>
       </c>
       <c r="X41" t="n">
-        <v>2498.426129462416</v>
+        <v>2134.622314787774</v>
       </c>
       <c r="Y41" t="n">
-        <v>2180.972245297973</v>
+        <v>1817.168430623331</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8155457622241</v>
+        <v>582.8155457622258</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5648106456862</v>
+        <v>486.5648106456878</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1336190447196</v>
+        <v>409.1336190447208</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9059732736955</v>
+        <v>333.9059732736965</v>
       </c>
       <c r="F43" t="n">
-        <v>259.7014735871542</v>
+        <v>259.701473587155</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6840847732422</v>
+        <v>164.6840847732427</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246903</v>
+        <v>91.1523458024693</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
@@ -7594,25 +7594,25 @@
         <v>1910.149538657389</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.149102295585</v>
+        <v>1791.149102295584</v>
       </c>
       <c r="T43" t="n">
-        <v>1642.06793467648</v>
+        <v>1642.067934676479</v>
       </c>
       <c r="U43" t="n">
         <v>1425.650515613492</v>
       </c>
       <c r="V43" t="n">
-        <v>1211.921519425496</v>
+        <v>1211.921519425498</v>
       </c>
       <c r="W43" t="n">
-        <v>995.1897971999042</v>
+        <v>995.1897971999066</v>
       </c>
       <c r="X43" t="n">
-        <v>839.8856941132559</v>
+        <v>839.8856941132581</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.7785627810948</v>
+        <v>691.7785627810968</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.057853045219</v>
+        <v>1570.780783916178</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.780783916177</v>
+        <v>1570.780783916178</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.200533120795</v>
+        <v>1285.200533120796</v>
       </c>
       <c r="E44" t="n">
-        <v>972.09772833392</v>
+        <v>972.0977283339207</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7972713556816</v>
+        <v>633.7972713556819</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120472</v>
+        <v>291.4102690120474</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810553</v>
@@ -7658,40 +7658,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3288.000600947636</v>
       </c>
       <c r="T44" t="n">
-        <v>3192.313521804762</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U44" t="n">
-        <v>3011.468492889967</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>2753.091053357766</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W44" t="n">
-        <v>2498.426129462415</v>
+        <v>2435.402625237484</v>
       </c>
       <c r="X44" t="n">
-        <v>2498.426129462415</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y44" t="n">
-        <v>2180.972245297972</v>
+        <v>1817.16843062333</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7743,7 +7743,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.8155457622241</v>
+        <v>582.8155457622258</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456862</v>
+        <v>486.5648106456878</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447196</v>
+        <v>409.1336190447208</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736955</v>
+        <v>333.9059732736965</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871542</v>
+        <v>259.701473587155</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732422</v>
+        <v>164.6840847732427</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246903</v>
+        <v>91.1523458024693</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
@@ -7831,25 +7831,25 @@
         <v>1910.149538657389</v>
       </c>
       <c r="S46" t="n">
-        <v>1759.419146502106</v>
+        <v>1759.419146502109</v>
       </c>
       <c r="T46" t="n">
-        <v>1610.337978883001</v>
+        <v>1610.337978883004</v>
       </c>
       <c r="U46" t="n">
-        <v>1393.920559820014</v>
+        <v>1393.920559820016</v>
       </c>
       <c r="V46" t="n">
-        <v>1211.921519425496</v>
+        <v>1211.921519425498</v>
       </c>
       <c r="W46" t="n">
-        <v>995.1897971999042</v>
+        <v>995.1897971999066</v>
       </c>
       <c r="X46" t="n">
-        <v>839.8856941132559</v>
+        <v>839.8856941132581</v>
       </c>
       <c r="Y46" t="n">
-        <v>691.7785627810948</v>
+        <v>691.7785627810968</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331812</v>
+        <v>161.2833466331796</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772614</v>
+        <v>190.470899677259</v>
       </c>
       <c r="L8" t="n">
-        <v>199.0214867114938</v>
+        <v>199.0214867114908</v>
       </c>
       <c r="M8" t="n">
-        <v>189.460420549997</v>
+        <v>189.4604205499937</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8656757253957</v>
+        <v>187.8656757253924</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001305</v>
+        <v>190.8661912001273</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610381</v>
+        <v>197.7493741610354</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168183</v>
+        <v>197.1608845168163</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723703</v>
+        <v>115.0671825723694</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7238752484544</v>
+        <v>117.7238752484528</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888319</v>
+        <v>111.5038326888297</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586507</v>
+        <v>110.5673213586482</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809814</v>
+        <v>98.93952256809551</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195526</v>
+        <v>112.9545713195502</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755402</v>
+        <v>110.1843514755383</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137825</v>
+        <v>124.0787517137812</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747617</v>
+        <v>119.3562654747604</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960289</v>
+        <v>122.5532519960276</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290573</v>
+        <v>111.702314729056</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297872</v>
+        <v>123.693438829786</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182094</v>
+        <v>125.0956219182083</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>398.7594661441061</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>22.06293401993196</v>
+        <v>186.0093651189848</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.033839680530946e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9881,16 +9881,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665437</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>287.0017854473915</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>167.736966642837</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665437</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,22 +10352,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>306.6874953089258</v>
+        <v>190.2350110279884</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-1.826879702965449e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0698909884586</v>
+        <v>15.06989098845858</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>123.0387407269846</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958324</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>286.7586765022522</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.77635683940025e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>5.981554650712023</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>27.68982634589689</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>69.75045508965778</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.9636154458406</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6938237972849</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>182.7710256165667</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>53.01956954108421</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23969,13 +23969,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>297.0487454286722</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>286.4588952783477</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>125.9891391224286</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>115.399288972104</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
     </row>
     <row r="27">
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>309.9717767390067</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>50.19399978888998</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,13 +25679,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>104.3721113910158</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7936651368796</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>66.8514780901445</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>293.3142984377524</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.2291684549205</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,10 +25925,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>25.16410072776046</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>297.7725073452137</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>834854.4126116951</v>
+        <v>834854.4126116938</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>700886.7321661173</v>
+        <v>700886.7321661172</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>769332.584245969</v>
+        <v>769332.5842459691</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782016.9487281371</v>
+        <v>782016.948728137</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751746.4161431137</v>
+        <v>751746.4161431139</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>725944.1399126553</v>
+        <v>725944.1399126555</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>725944.1399126555</v>
+        <v>725944.1399126553</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>696384.8879094828</v>
+        <v>696384.8879094827</v>
       </c>
       <c r="C2" t="n">
-        <v>696384.8879094826</v>
+        <v>696384.887909483</v>
       </c>
       <c r="D2" t="n">
         <v>696400.6423054775</v>
       </c>
       <c r="E2" t="n">
-        <v>649851.3584063667</v>
+        <v>649851.3584063665</v>
       </c>
       <c r="F2" t="n">
-        <v>649851.3584063664</v>
+        <v>649851.3584063665</v>
       </c>
       <c r="G2" t="n">
-        <v>669979.2703770836</v>
+        <v>669979.2703770838</v>
       </c>
       <c r="H2" t="n">
         <v>669979.2703770838</v>
@@ -26338,22 +26338,22 @@
         <v>697885.5043846407</v>
       </c>
       <c r="K2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="L2" t="n">
         <v>697885.504384641</v>
       </c>
       <c r="M2" t="n">
-        <v>697885.5043846414</v>
+        <v>697885.5043846418</v>
       </c>
       <c r="N2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="O2" t="n">
-        <v>673516.6879447639</v>
+        <v>673516.6879447638</v>
       </c>
       <c r="P2" t="n">
-        <v>673516.687944764</v>
+        <v>673516.6879447637</v>
       </c>
     </row>
     <row r="3">
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004264937</v>
+        <v>49603.99004265338</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112467</v>
+        <v>1114814.601112464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.207778994</v>
+        <v>16999.20777899402</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.85161716365</v>
+        <v>28261.85161716366</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225415</v>
+        <v>40637.45238225411</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>16999.20777899417</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927244</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,22 +26421,22 @@
         <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>438929.2150975106</v>
+        <v>438929.2150975091</v>
       </c>
       <c r="E4" t="n">
+        <v>60655.33327364778</v>
+      </c>
+      <c r="F4" t="n">
         <v>60655.33327364777</v>
-      </c>
-      <c r="F4" t="n">
-        <v>60655.3332736478</v>
       </c>
       <c r="G4" t="n">
         <v>74063.9896894492</v>
       </c>
       <c r="H4" t="n">
-        <v>74063.98968944917</v>
+        <v>74063.9896894492</v>
       </c>
       <c r="I4" t="n">
-        <v>91700.403986884</v>
+        <v>91700.40398688405</v>
       </c>
       <c r="J4" t="n">
         <v>91012.35309462833</v>
@@ -26448,16 +26448,16 @@
         <v>91012.35309462828</v>
       </c>
       <c r="M4" t="n">
-        <v>92793.84288319413</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="N4" t="n">
-        <v>92793.84288319408</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="O4" t="n">
-        <v>76430.4098309039</v>
+        <v>76430.40983090379</v>
       </c>
       <c r="P4" t="n">
-        <v>76430.40983090388</v>
+        <v>76430.40983090378</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.2685025347</v>
+        <v>34890.2685025348</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.87632024706</v>
+        <v>80041.87632024707</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.87632024706</v>
+        <v>80041.87632024707</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.64721582712</v>
+        <v>86503.64721582715</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.9416748061</v>
@@ -26506,10 +26506,10 @@
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>80355.82754432673</v>
+        <v>80355.82754432672</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.82754432673</v>
+        <v>80355.82754432672</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>204981.9270839453</v>
+        <v>204977.5135060771</v>
       </c>
       <c r="C6" t="n">
-        <v>204981.9270839451</v>
+        <v>204977.5135060775</v>
       </c>
       <c r="D6" t="n">
-        <v>172977.1686627829</v>
+        <v>172972.8014213709</v>
       </c>
       <c r="E6" t="n">
-        <v>-603874.0693015304</v>
+        <v>-604015.3462014627</v>
       </c>
       <c r="F6" t="n">
-        <v>510940.5318109372</v>
+        <v>510799.2549110009</v>
       </c>
       <c r="G6" t="n">
-        <v>498874.1965883933</v>
+        <v>498792.1194295478</v>
       </c>
       <c r="H6" t="n">
-        <v>515873.4043673874</v>
+        <v>515791.3272085418</v>
       </c>
       <c r="I6" t="n">
         <v>491419.6015647652</v>
       </c>
       <c r="J6" t="n">
-        <v>476857.7572329521</v>
+        <v>476857.7572329522</v>
       </c>
       <c r="K6" t="n">
-        <v>517495.2096152061</v>
+        <v>517495.2096152063</v>
       </c>
       <c r="L6" t="n">
         <v>500496.0018362123</v>
       </c>
       <c r="M6" t="n">
-        <v>320404.9642024731</v>
+        <v>320404.9642024736</v>
       </c>
       <c r="N6" t="n">
-        <v>522573.0641951966</v>
+        <v>522573.0641951968</v>
       </c>
       <c r="O6" t="n">
-        <v>516730.4505695333</v>
+        <v>516658.7775800043</v>
       </c>
       <c r="P6" t="n">
-        <v>516730.4505695335</v>
+        <v>516658.7775800042</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076625</v>
+        <v>57.92057351077094</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6805819743327</v>
+        <v>937.6805819743333</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26920,16 +26920,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374272</v>
+        <v>21.24900972374275</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484967</v>
+        <v>25.72612689484984</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>21.24900972374272</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951263</v>
+        <v>50.70958360951241</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076625</v>
+        <v>57.92057351077094</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.856127082532</v>
+        <v>1031.856127082527</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.780247939795373e-14</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720402</v>
+        <v>106.2791265720408</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428177</v>
+        <v>76.65587923428109</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374272</v>
+        <v>21.24900972374275</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484967</v>
+        <v>25.72612689484984</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.090162624442</v>
+        <v>337.0901626244418</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4990738507122</v>
+        <v>201.4990738507115</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.2425723098103</v>
+        <v>135.2425723098091</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596058</v>
+        <v>203.7140793596054</v>
       </c>
       <c r="T8" t="n">
-        <v>222.0765638936052</v>
+        <v>222.0765638936051</v>
       </c>
       <c r="U8" t="n">
         <v>251.3270251857024</v>
@@ -27947,10 +27947,10 @@
         <v>137.218933288112</v>
       </c>
       <c r="H9" t="n">
-        <v>111.032226284886</v>
+        <v>111.0322262848859</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858947</v>
+        <v>85.10723188858911</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643174</v>
+        <v>92.42270548643111</v>
       </c>
       <c r="S9" t="n">
-        <v>169.3690802659313</v>
+        <v>169.3690802659311</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6625682508934</v>
+        <v>199.6625682508933</v>
       </c>
       <c r="U9" t="n">
         <v>225.9331857734025</v>
@@ -28029,13 +28029,13 @@
         <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3094707112974</v>
+        <v>152.3094707112971</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284935</v>
+        <v>85.97478175284876</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657806</v>
+        <v>10.13465691657708</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156867</v>
+        <v>77.41603665156798</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348047</v>
+        <v>172.5970773348044</v>
       </c>
       <c r="S10" t="n">
-        <v>222.1963728005765</v>
+        <v>222.1963728005764</v>
       </c>
       <c r="T10" t="n">
         <v>227.499316156969</v>
@@ -28108,7 +28108,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28758,37 +28758,37 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>28.91388186835769</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>28.91388186835655</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>28.913881868357</v>
       </c>
       <c r="K22" t="n">
-        <v>28.91388186835701</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233529</v>
+        <v>68.22414634233532</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>28.91388186835709</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>28.91388186835536</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233544</v>
+        <v>68.2241463423353</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810518</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>45.39291458738447</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810518</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810518</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810518</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810518</v>
+        <v>46.7252144056539</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810502</v>
+        <v>45.3929145873873</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.47778196371112</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="V43" t="n">
-        <v>40.54593709771129</v>
+        <v>40.5459370977149</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="S46" t="n">
-        <v>40.54593709771132</v>
+        <v>40.54593709771493</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325535</v>
+        <v>71.95859333325511</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764471</v>
+        <v>0.2328465266764659</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325164</v>
+        <v>2.384639491325357</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693734</v>
+        <v>8.976815719694461</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350512</v>
+        <v>19.76255789350672</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771913</v>
+        <v>29.61895136772152</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849345</v>
+        <v>36.74492825849642</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727572</v>
+        <v>40.88581267727902</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119518</v>
+        <v>41.54738787119854</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155625</v>
+        <v>39.23202022155942</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423146</v>
+        <v>33.48362159423417</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763119</v>
+        <v>25.14480535763322</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133938</v>
+        <v>14.62654563134056</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639543</v>
+        <v>5.305990226639972</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526147</v>
+        <v>1.01928567052623</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411576</v>
+        <v>0.01862772213411727</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986293</v>
+        <v>0.1245838750986394</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610446</v>
+        <v>1.203217951610544</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825614</v>
+        <v>4.289400962825962</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429638</v>
+        <v>11.77044409429733</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590454</v>
+        <v>20.11756372590617</v>
       </c>
       <c r="L9" t="n">
-        <v>27.0505470910423</v>
+        <v>27.05054709104449</v>
       </c>
       <c r="M9" t="n">
-        <v>31.5667125633676</v>
+        <v>31.56671256337016</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523517</v>
+        <v>32.40218951523779</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489186</v>
+        <v>29.64167312489425</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593879001</v>
+        <v>23.79005593879194</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223907</v>
+        <v>15.90302237224035</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211391</v>
+        <v>7.735128666212016</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906556</v>
+        <v>2.314090837906743</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282469</v>
+        <v>0.5021604439282875</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278247</v>
+        <v>0.00819630757227891</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390867</v>
+        <v>0.1044469358390951</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693349</v>
+        <v>0.92862821136941</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960899</v>
+        <v>3.141004215961152</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823427</v>
+        <v>7.384398363824024</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930479</v>
+        <v>12.13483490930578</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647658</v>
+        <v>15.52841080647783</v>
       </c>
       <c r="M10" t="n">
-        <v>16.3725319515761</v>
+        <v>16.37253195157743</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617588</v>
+        <v>15.98322973617718</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205564</v>
+        <v>14.76309962205683</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093826</v>
+        <v>12.63238213093928</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125703</v>
+        <v>8.74600660012641</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364751</v>
+        <v>4.69631404236513</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395719</v>
+        <v>1.820225236395866</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124611</v>
+        <v>0.4462732713124972</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591222916</v>
+        <v>0.005697105591223377</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,37 +32303,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32342,7 +32342,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32391,16 +32391,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32409,19 +32409,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -33497,10 +33497,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34463,10 +34463,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>331.2670120909974</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>263.8709530134669</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>74.49229848142319</v>
       </c>
       <c r="K22" t="n">
-        <v>234.9615414126765</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36364,10 +36364,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>937.6805819743327</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>574.3647694328432</v>
+        <v>738.311200531896</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>74.49229848142329</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
@@ -36522,7 +36522,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>376.5472612618391</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
@@ -36601,16 +36601,16 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>827.137011779455</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>685.7637716667631</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120763</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>504.9282531982374</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>827.137011779455</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120763</v>
@@ -37072,22 +37072,22 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>858.9893307218371</v>
+        <v>742.5368464408997</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222472</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165885</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887906</v>
@@ -37239,7 +37239,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
         <v>281.9322077637029</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129129</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597742</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129129</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597742</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037208</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222472</v>
@@ -38111,10 +38111,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
